--- a/61 手動ＩＦ対応開発資料/04.スケジュール/手動ＩＦスケジュール_提出用0519.xlsx
+++ b/61 手動ＩＦ対応開発資料/04.スケジュール/手動ＩＦスケジュール_提出用0519.xlsx
@@ -3114,10 +3114,10 @@
   <dimension ref="A1:ED58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="12" ySplit="4" topLeftCell="AO8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="4" topLeftCell="AO5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
+      <selection pane="bottomRight" activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3273,7 +3273,7 @@
       <c r="H2" s="87"/>
       <c r="I2" s="88">
         <f ca="1">TODAY()</f>
-        <v>42149</v>
+        <v>42150</v>
       </c>
       <c r="J2" s="89"/>
       <c r="K2" s="5"/>
@@ -4302,7 +4302,7 @@
       <c r="K4" s="15"/>
       <c r="L4" s="20">
         <f ca="1">TODAY()</f>
-        <v>42149</v>
+        <v>42150</v>
       </c>
       <c r="M4" s="21" t="str">
         <f>IF(ISERROR(VLOOKUP(M3,休日!$A$1:$A$9,1,FALSE)),MID("日月火水木金土",WEEKDAY(M3),1),"休")</f>
@@ -15625,13 +15625,15 @@
       <c r="H26" s="33">
         <v>42139</v>
       </c>
-      <c r="I26" s="41"/>
+      <c r="I26" s="41">
+        <v>42143</v>
+      </c>
       <c r="J26" s="34">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="K26" s="35">
         <f>IF(ISBLANK(H26),H26,IF(ISBLANK(I26),INT(H26-1+(I25-H25+1)*J26),I26))</f>
-        <v>42141</v>
+        <v>42143</v>
       </c>
       <c r="L26" s="35">
         <f>IF(ISBLANK(H26),H26,IF(ISBLANK(I26),H26+I25-H25,I26))</f>
@@ -15827,11 +15829,11 @@
       </c>
       <c r="BH26" s="37" t="str">
         <f t="shared" si="90"/>
-        <v>□</v>
+        <v>■</v>
       </c>
       <c r="BI26" s="37" t="str">
         <f t="shared" si="90"/>
-        <v>□</v>
+        <v>■</v>
       </c>
       <c r="BJ26" s="37" t="str">
         <f t="shared" si="90"/>
@@ -16657,13 +16659,15 @@
       <c r="H28" s="33">
         <v>42139</v>
       </c>
-      <c r="I28" s="41"/>
+      <c r="I28" s="41">
+        <v>42143</v>
+      </c>
       <c r="J28" s="34">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="K28" s="35">
         <f>IF(ISBLANK(H28),H28,IF(ISBLANK(I28),INT(H28-1+(I27-H27+1)*J28),I28))</f>
-        <v>42141</v>
+        <v>42143</v>
       </c>
       <c r="L28" s="35">
         <f>IF(ISBLANK(H28),H28,IF(ISBLANK(I28),H28+I27-H27,I28))</f>
@@ -16859,11 +16863,11 @@
       </c>
       <c r="BH28" s="37" t="str">
         <f t="shared" si="90"/>
-        <v>□</v>
+        <v>■</v>
       </c>
       <c r="BI28" s="37" t="str">
         <f t="shared" si="90"/>
-        <v>□</v>
+        <v>■</v>
       </c>
       <c r="BJ28" s="37" t="str">
         <f t="shared" si="90"/>
@@ -17686,16 +17690,22 @@
       <c r="E30" s="47"/>
       <c r="F30" s="32"/>
       <c r="G30" s="62"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="34"/>
+      <c r="H30" s="33">
+        <v>42144</v>
+      </c>
+      <c r="I30" s="41">
+        <v>42146</v>
+      </c>
+      <c r="J30" s="34">
+        <v>1</v>
+      </c>
       <c r="K30" s="35">
         <f>IF(ISBLANK(H30),H30,IF(ISBLANK(I30),INT(H30-1+(I29-H29+1)*J30),I30))</f>
-        <v>0</v>
+        <v>42146</v>
       </c>
       <c r="L30" s="35">
         <f>IF(ISBLANK(H30),H30,IF(ISBLANK(I30),H30+I29-H29,I30))</f>
-        <v>0</v>
+        <v>42146</v>
       </c>
       <c r="M30" s="36" t="str">
         <f t="shared" si="93"/>
@@ -17895,15 +17905,15 @@
       </c>
       <c r="BJ30" s="37" t="str">
         <f t="shared" si="90"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="BK30" s="37" t="str">
         <f t="shared" si="90"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="BL30" s="37" t="str">
         <f t="shared" si="90"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="BM30" s="37" t="str">
         <f t="shared" si="90"/>
@@ -18714,16 +18724,22 @@
       <c r="E32" s="47"/>
       <c r="F32" s="32"/>
       <c r="G32" s="62"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="34"/>
+      <c r="H32" s="33">
+        <v>42144</v>
+      </c>
+      <c r="I32" s="41">
+        <v>42146</v>
+      </c>
+      <c r="J32" s="34">
+        <v>1</v>
+      </c>
       <c r="K32" s="35">
         <f>IF(ISBLANK(H32),H32,IF(ISBLANK(I32),INT(H32-1+(I31-H31+1)*J32),I32))</f>
-        <v>0</v>
+        <v>42146</v>
       </c>
       <c r="L32" s="35">
         <f>IF(ISBLANK(H32),H32,IF(ISBLANK(I32),H32+I31-H31,I32))</f>
-        <v>0</v>
+        <v>42146</v>
       </c>
       <c r="M32" s="36" t="str">
         <f t="shared" si="93"/>
@@ -18923,15 +18939,15 @@
       </c>
       <c r="BJ32" s="37" t="str">
         <f t="shared" si="90"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="BK32" s="37" t="str">
         <f t="shared" si="90"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="BL32" s="37" t="str">
         <f t="shared" si="90"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="BM32" s="37" t="str">
         <f t="shared" si="90"/>
@@ -25904,16 +25920,22 @@
       <c r="E46" s="47"/>
       <c r="F46" s="32"/>
       <c r="G46" s="62"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="34"/>
+      <c r="H46" s="33">
+        <v>42142</v>
+      </c>
+      <c r="I46" s="41">
+        <v>42143</v>
+      </c>
+      <c r="J46" s="34">
+        <v>1</v>
+      </c>
       <c r="K46" s="35">
         <f>IF(ISBLANK(H46),H46,IF(ISBLANK(I46),INT(H46-1+(I45-H45+1)*J46),I46))</f>
-        <v>0</v>
+        <v>42143</v>
       </c>
       <c r="L46" s="35">
         <f>IF(ISBLANK(H46),H46,IF(ISBLANK(I46),H46+I45-H45,I46))</f>
-        <v>0</v>
+        <v>42143</v>
       </c>
       <c r="M46" s="36" t="str">
         <f t="shared" si="99"/>
@@ -26105,11 +26127,11 @@
       </c>
       <c r="BH46" s="37" t="str">
         <f t="shared" si="114"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="BI46" s="37" t="str">
         <f t="shared" si="104"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="BJ46" s="37" t="str">
         <f t="shared" si="104"/>
@@ -26932,16 +26954,22 @@
       <c r="E48" s="47"/>
       <c r="F48" s="32"/>
       <c r="G48" s="62"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="34"/>
+      <c r="H48" s="33">
+        <v>42144</v>
+      </c>
+      <c r="I48" s="41">
+        <v>42145</v>
+      </c>
+      <c r="J48" s="34">
+        <v>1</v>
+      </c>
       <c r="K48" s="35">
         <f>IF(ISBLANK(H48),H48,IF(ISBLANK(I48),INT(H48-1+(I47-H47+1)*J48),I48))</f>
-        <v>0</v>
+        <v>42145</v>
       </c>
       <c r="L48" s="35">
         <f>IF(ISBLANK(H48),H48,IF(ISBLANK(I48),H48+I47-H47,I48))</f>
-        <v>0</v>
+        <v>42145</v>
       </c>
       <c r="M48" s="36" t="str">
         <f t="shared" ref="M48:AB50" si="124">IF(AND(M$3&gt;=$H48,M$3&lt;=$K48),IF(ISERROR(FIND(M$4,"土日休")),"■","◇"),IF(AND(M$3&gt;=$H48,M$3&lt;=$L48),IF(ISERROR(FIND(M$4,"土日休")),"□","□"),""))</f>
@@ -27141,11 +27169,11 @@
       </c>
       <c r="BJ48" s="37" t="str">
         <f t="shared" si="104"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="BK48" s="37" t="str">
         <f t="shared" si="104"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="BL48" s="37" t="str">
         <f t="shared" si="104"/>
@@ -27960,16 +27988,20 @@
       <c r="E50" s="47"/>
       <c r="F50" s="32"/>
       <c r="G50" s="62"/>
-      <c r="H50" s="33"/>
+      <c r="H50" s="33">
+        <v>42146</v>
+      </c>
       <c r="I50" s="41"/>
-      <c r="J50" s="34"/>
+      <c r="J50" s="34">
+        <v>0.9</v>
+      </c>
       <c r="K50" s="35">
         <f>IF(ISBLANK(H50),H50,IF(ISBLANK(I50),INT(H50-1+(I49-H49+1)*J50),I50))</f>
-        <v>0</v>
+        <v>42148</v>
       </c>
       <c r="L50" s="35">
         <f>IF(ISBLANK(H50),H50,IF(ISBLANK(I50),H50+I49-H49,I50))</f>
-        <v>0</v>
+        <v>42149</v>
       </c>
       <c r="M50" s="36" t="str">
         <f t="shared" si="124"/>
@@ -28177,19 +28209,19 @@
       </c>
       <c r="BL50" s="37" t="str">
         <f t="shared" si="111"/>
-        <v/>
+        <v>■</v>
       </c>
       <c r="BM50" s="37" t="str">
         <f t="shared" si="111"/>
-        <v/>
+        <v>◇</v>
       </c>
       <c r="BN50" s="37" t="str">
         <f t="shared" si="111"/>
-        <v/>
+        <v>◇</v>
       </c>
       <c r="BO50" s="37" t="str">
         <f t="shared" si="111"/>
-        <v/>
+        <v>□</v>
       </c>
       <c r="BP50" s="37" t="str">
         <f t="shared" si="111"/>
